--- a/Vorlage_28.xlsx
+++ b/Vorlage_28.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\wswin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Desktop\Vorlagen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FC6C34-EAA2-4198-9C27-D64991199449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7B0F75-24DE-44EC-A1FD-892E36EAD70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Tag</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Min-MaxØ</t>
+  </si>
+  <si>
+    <t>Vorlage</t>
   </si>
 </sst>
 </file>
@@ -307,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -355,11 +358,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,9 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -722,9 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A852EB4-E3A2-4E9A-803A-099CF183F6C1}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1659,24 +1653,23 @@
       <c r="K32" s="36"/>
     </row>
     <row r="33" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="48"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="16"/>
       <c r="J33" s="15"/>
       <c r="K33" s="36"/>
     </row>
     <row r="34" spans="1:13" s="15" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="48"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="16"/>
       <c r="H34"/>
       <c r="L34"/>
       <c r="M34"/>
@@ -1695,21 +1688,17 @@
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="17"/>
-      <c r="D36" s="26" cm="1">
-        <f t="array" ref="D36">AVERAGE(VALUE(EXP!A1:A40320))</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="11" cm="1">
-        <f t="array" ref="E36">AVERAGE(VALUE(EXP!C1:C40320))</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="27" cm="1">
-        <f t="array" ref="F36">SUM(VALUE(EXP!B1:B40320))</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="11" cm="1">
-        <f t="array" ref="G36">AVERAGE(VALUE(EXP!D1:D40320))</f>
-        <v>0</v>
+      <c r="D36" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="19.5" x14ac:dyDescent="0.3">
